--- a/选材/整车各部分选材和基本功能及开发目标.xlsx
+++ b/选材/整车各部分选材和基本功能及开发目标.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CreatCar\Outdoor autonomous vehicles\选材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22243634-71DB-4AAD-94BF-2D78A47E9A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8404FF-987C-4CEA-8A5D-07269E28AEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,18 +47,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.实现基于TCP/IP协议的视频数据传输，户外车拍摄的视频远程传输到PC端。且实现在PC端可以远程操作户外车的行动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 实现基于GPS和北斗模块的定位操作，并实现物体识别功能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.实现激光雷达成像，和自动导航功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我的户外导航车——项目分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +68,14 @@
   </si>
   <si>
     <t>基本实现目标：（分为3个阶段进行开发）1.基本控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现基于TCP/IP协议的视频数据传输，户外车拍摄的视频远程传输到PC端。且实现在PC端可以远程操作户外车的行动。（已实现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.实现激光雷达与双目摄像头成像，和自动导航功能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +435,7 @@
   <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
   <sheetData>
     <row r="1" spans="6:7" s="2" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
       <c r="F1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -486,19 +486,19 @@
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
@@ -553,7 +553,7 @@
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">

--- a/选材/整车各部分选材和基本功能及开发目标.xlsx
+++ b/选材/整车各部分选材和基本功能及开发目标.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CreatCar\Outdoor autonomous vehicles\选材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8404FF-987C-4CEA-8A5D-07269E28AEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAE4E4B-8C4C-409B-BAF1-186877AECBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 实现基于GPS和北斗模块的定位操作，并实现物体识别功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我的户外导航车——项目分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,7 +71,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.实现激光雷达与双目摄像头成像，和自动导航功能。</t>
+    <t>2. 实现基于GPS和北斗模块的定位操作，并实现物体识别功能。(以实现)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.实现激光雷达与双目摄像头成像，和自动导航功能。（优化）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
   <sheetData>
     <row r="1" spans="6:7" s="2" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
       <c r="F1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -486,19 +486,19 @@
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
